--- a/新风小程序测试申请单.xlsx
+++ b/新风小程序测试申请单.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lijianshan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lijianshan/Desktop/小程序/享佳净/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="140" yWindow="460" windowWidth="25600" windowHeight="14380"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14380"/>
   </bookViews>
   <sheets>
     <sheet name="软件测试申请单（嵌入式软件）" sheetId="12" r:id="rId1"/>
@@ -124,10 +124,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>1.2.2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>李建山</t>
     <rPh sb="0" eb="1">
       <t>li jian s</t>
@@ -862,6 +858,10 @@
     <rPh sb="10" eb="11">
       <t>jian r</t>
     </rPh>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.4</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -1785,6 +1785,15 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1794,27 +1803,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1827,74 +1890,11 @@
     <xf numFmtId="49" fontId="21" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -4292,7 +4292,7 @@
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:I5"/>
+      <selection activeCell="H4" sqref="H4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4309,108 +4309,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" s="10" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
     </row>
     <row r="3" spans="1:11" s="12" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="52" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
       <c r="G3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="54"/>
+      <c r="I3" s="59"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11" s="12" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
       <c r="G4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="58"/>
+      <c r="H4" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="42"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:11" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="61"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="46"/>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="57"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
@@ -4418,17 +4418,17 @@
       <c r="A7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="45" t="s">
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
       <c r="I7" s="22" t="s">
         <v>7</v>
       </c>
@@ -4439,19 +4439,19 @@
       <c r="A8" s="23">
         <v>1</v>
       </c>
-      <c r="B8" s="35" t="s">
-        <v>24</v>
+      <c r="B8" s="50" t="s">
+        <v>23</v>
       </c>
       <c r="C8" s="16"/>
-      <c r="D8" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="32"/>
+      <c r="D8" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="32"/>
+      <c r="F8" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35"/>
       <c r="I8" s="24"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
@@ -4460,17 +4460,17 @@
       <c r="A9" s="23">
         <v>2</v>
       </c>
-      <c r="B9" s="37"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="16"/>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="32"/>
+      <c r="F9" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="32"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="35"/>
       <c r="I9" s="25"/>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
@@ -4479,17 +4479,17 @@
       <c r="A10" s="23">
         <v>3</v>
       </c>
-      <c r="B10" s="37"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="32"/>
+      <c r="F10" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="31"/>
-      <c r="H10" s="32"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="35"/>
       <c r="I10" s="25"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
@@ -4498,17 +4498,17 @@
       <c r="A11" s="23">
         <v>4</v>
       </c>
-      <c r="B11" s="37"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="31"/>
-      <c r="H11" s="32"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="35"/>
       <c r="I11" s="25"/>
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
@@ -4517,17 +4517,17 @@
       <c r="A12" s="23">
         <v>5</v>
       </c>
-      <c r="B12" s="37"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="32"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="35"/>
       <c r="I12" s="25"/>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
@@ -4536,17 +4536,17 @@
       <c r="A13" s="23">
         <v>6</v>
       </c>
-      <c r="B13" s="36"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="15"/>
-      <c r="D13" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="31"/>
-      <c r="H13" s="32"/>
+      <c r="D13" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="32"/>
+      <c r="F13" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="34"/>
+      <c r="H13" s="35"/>
       <c r="I13" s="25"/>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
@@ -4555,19 +4555,19 @@
       <c r="A14" s="23">
         <v>7</v>
       </c>
-      <c r="B14" s="35" t="s">
-        <v>39</v>
+      <c r="B14" s="50" t="s">
+        <v>38</v>
       </c>
       <c r="C14" s="15"/>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="32"/>
+      <c r="F14" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="32"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="35"/>
       <c r="I14" s="25"/>
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
@@ -4576,17 +4576,17 @@
       <c r="A15" s="23">
         <v>8</v>
       </c>
-      <c r="B15" s="37"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="32"/>
+      <c r="F15" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="32"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="35"/>
       <c r="I15" s="25"/>
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
@@ -4595,19 +4595,19 @@
       <c r="A16" s="23">
         <v>9</v>
       </c>
-      <c r="B16" s="37" t="s">
-        <v>39</v>
+      <c r="B16" s="51" t="s">
+        <v>38</v>
       </c>
       <c r="C16" s="16"/>
-      <c r="D16" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="32"/>
+      <c r="D16" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="32"/>
+      <c r="F16" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="34"/>
+      <c r="H16" s="35"/>
       <c r="I16" s="25"/>
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
@@ -4616,17 +4616,17 @@
       <c r="A17" s="23">
         <v>10</v>
       </c>
-      <c r="B17" s="37"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="16"/>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="32"/>
+      <c r="F17" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="32"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="35"/>
       <c r="I17" s="25"/>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
@@ -4635,19 +4635,19 @@
       <c r="A18" s="23">
         <v>11</v>
       </c>
-      <c r="B18" s="35" t="s">
-        <v>40</v>
+      <c r="B18" s="50" t="s">
+        <v>39</v>
       </c>
       <c r="C18" s="16"/>
-      <c r="D18" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="32"/>
+      <c r="D18" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="32"/>
+      <c r="F18" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="34"/>
+      <c r="H18" s="35"/>
       <c r="I18" s="25"/>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
@@ -4656,17 +4656,17 @@
       <c r="A19" s="23">
         <v>12</v>
       </c>
-      <c r="B19" s="37"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="15"/>
-      <c r="D19" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" s="31"/>
-      <c r="H19" s="32"/>
+      <c r="D19" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="32"/>
+      <c r="F19" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="34"/>
+      <c r="H19" s="35"/>
       <c r="I19" s="25"/>
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
@@ -4675,17 +4675,17 @@
       <c r="A20" s="23">
         <v>13</v>
       </c>
-      <c r="B20" s="37"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="15"/>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="32"/>
+      <c r="F20" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="32"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="35"/>
       <c r="I20" s="25"/>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
@@ -4694,17 +4694,17 @@
       <c r="A21" s="23">
         <v>14</v>
       </c>
-      <c r="B21" s="37"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="15"/>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="32"/>
+      <c r="F21" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="31"/>
-      <c r="H21" s="32"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="35"/>
       <c r="I21" s="25"/>
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
@@ -4713,17 +4713,17 @@
       <c r="A22" s="23">
         <v>15</v>
       </c>
-      <c r="B22" s="35" t="s">
-        <v>41</v>
+      <c r="B22" s="50" t="s">
+        <v>40</v>
       </c>
       <c r="C22" s="15"/>
-      <c r="D22" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="32"/>
+      <c r="D22" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="32"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="35"/>
       <c r="I22" s="25"/>
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
@@ -4732,15 +4732,15 @@
       <c r="A23" s="23">
         <v>16</v>
       </c>
-      <c r="B23" s="37"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="15"/>
-      <c r="D23" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="32"/>
+      <c r="D23" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="32"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="35"/>
       <c r="I23" s="25"/>
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
@@ -4749,17 +4749,17 @@
       <c r="A24" s="23">
         <v>17</v>
       </c>
-      <c r="B24" s="37"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="15"/>
-      <c r="D24" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="G24" s="31"/>
-      <c r="H24" s="32"/>
+      <c r="D24" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="32"/>
+      <c r="F24" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="34"/>
+      <c r="H24" s="35"/>
       <c r="I24" s="25"/>
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
@@ -4768,15 +4768,15 @@
       <c r="A25" s="23">
         <v>18</v>
       </c>
-      <c r="B25" s="37"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="15"/>
-      <c r="D25" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="32"/>
+      <c r="D25" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="32"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="35"/>
       <c r="I25" s="25"/>
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
@@ -4785,17 +4785,17 @@
       <c r="A26" s="23">
         <v>19</v>
       </c>
-      <c r="B26" s="37"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="15"/>
-      <c r="D26" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="G26" s="31"/>
-      <c r="H26" s="32"/>
+      <c r="D26" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="32"/>
+      <c r="F26" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="34"/>
+      <c r="H26" s="35"/>
       <c r="I26" s="25"/>
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
@@ -4804,15 +4804,15 @@
       <c r="A27" s="23">
         <v>20</v>
       </c>
-      <c r="B27" s="37"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="15"/>
-      <c r="D27" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="32"/>
+      <c r="D27" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="32"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="35"/>
       <c r="I27" s="25"/>
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
@@ -4821,15 +4821,15 @@
       <c r="A28" s="23">
         <v>21</v>
       </c>
-      <c r="B28" s="37"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="15"/>
-      <c r="D28" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="32"/>
+      <c r="D28" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="32"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="35"/>
       <c r="I28" s="25"/>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
@@ -4838,17 +4838,17 @@
       <c r="A29" s="23">
         <v>22</v>
       </c>
-      <c r="B29" s="37"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="15"/>
-      <c r="D29" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29" s="34"/>
-      <c r="F29" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="G29" s="31"/>
-      <c r="H29" s="32"/>
+      <c r="D29" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="32"/>
+      <c r="F29" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" s="34"/>
+      <c r="H29" s="35"/>
       <c r="I29" s="25"/>
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
@@ -4857,17 +4857,17 @@
       <c r="A30" s="23">
         <v>23</v>
       </c>
-      <c r="B30" s="37"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="15"/>
-      <c r="D30" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="34"/>
-      <c r="F30" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="G30" s="31"/>
-      <c r="H30" s="32"/>
+      <c r="D30" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="32"/>
+      <c r="F30" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="G30" s="34"/>
+      <c r="H30" s="35"/>
       <c r="I30" s="25"/>
       <c r="J30" s="13"/>
       <c r="K30" s="13"/>
@@ -4876,15 +4876,15 @@
       <c r="A31" s="23">
         <v>24</v>
       </c>
-      <c r="B31" s="37"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="15"/>
-      <c r="D31" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="34"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="32"/>
+      <c r="D31" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="32"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="35"/>
       <c r="I31" s="25"/>
       <c r="J31" s="13"/>
       <c r="K31" s="13"/>
@@ -4893,15 +4893,15 @@
       <c r="A32" s="23">
         <v>25</v>
       </c>
-      <c r="B32" s="37"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="15"/>
-      <c r="D32" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" s="34"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="32"/>
+      <c r="D32" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="32"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="35"/>
       <c r="I32" s="25"/>
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
@@ -4910,15 +4910,15 @@
       <c r="A33" s="23">
         <v>26</v>
       </c>
-      <c r="B33" s="36"/>
+      <c r="B33" s="52"/>
       <c r="C33" s="16"/>
-      <c r="D33" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="E33" s="34"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="32"/>
+      <c r="D33" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="32"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="35"/>
       <c r="I33" s="25"/>
       <c r="J33" s="13"/>
       <c r="K33" s="13"/>
@@ -4927,17 +4927,17 @@
       <c r="A34" s="23">
         <v>27</v>
       </c>
-      <c r="B34" s="35" t="s">
-        <v>38</v>
+      <c r="B34" s="50" t="s">
+        <v>37</v>
       </c>
       <c r="C34" s="15"/>
-      <c r="D34" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" s="34"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="32"/>
+      <c r="D34" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="32"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="35"/>
       <c r="I34" s="25"/>
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
@@ -4946,15 +4946,15 @@
       <c r="A35" s="23">
         <v>28</v>
       </c>
-      <c r="B35" s="37"/>
+      <c r="B35" s="51"/>
       <c r="C35" s="16"/>
-      <c r="D35" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="34"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="32"/>
+      <c r="D35" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="32"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="35"/>
       <c r="I35" s="25"/>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
@@ -4963,15 +4963,15 @@
       <c r="A36" s="23">
         <v>29</v>
       </c>
-      <c r="B36" s="36"/>
+      <c r="B36" s="52"/>
       <c r="C36" s="15"/>
-      <c r="D36" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="E36" s="34"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="32"/>
+      <c r="D36" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="32"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="35"/>
       <c r="I36" s="25"/>
       <c r="J36" s="13"/>
       <c r="K36" s="13"/>
@@ -4984,46 +4984,46 @@
         <v>15</v>
       </c>
       <c r="C37" s="15"/>
-      <c r="D37" s="33" t="s">
+      <c r="D37" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="32"/>
+      <c r="F37" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="E37" s="34"/>
-      <c r="F37" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="G37" s="31"/>
-      <c r="H37" s="32"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="35"/>
       <c r="I37" s="25"/>
       <c r="J37" s="13"/>
       <c r="K37" s="13"/>
     </row>
     <row r="38" spans="1:11" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="44" t="s">
+      <c r="A38" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="45"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="47"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="66"/>
       <c r="J38" s="13"/>
       <c r="K38" s="13"/>
     </row>
     <row r="39" spans="1:11" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="40" t="s">
+      <c r="A39" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="43"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="64"/>
       <c r="F39" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G39" s="66"/>
+      <c r="G39" s="30"/>
       <c r="H39" s="27" t="s">
         <v>12</v>
       </c>
@@ -5032,10 +5032,10 @@
       <c r="K39" s="3"/>
     </row>
     <row r="40" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="38" t="s">
+      <c r="A40" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="38"/>
+      <c r="B40" s="60"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
@@ -5182,33 +5182,47 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:I6"/>
     <mergeCell ref="D9:E9"/>
@@ -5225,47 +5239,33 @@
     <mergeCell ref="B8:B13"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:H13"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:I38"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:H32"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
